--- a/result/interactions_download/Gastric_cancer_precog.xlsx
+++ b/result/interactions_download/Gastric_cancer_precog.xlsx
@@ -1608,64 +1608,64 @@
     <t xml:space="preserve">P2RY13</t>
   </si>
   <si>
+    <t xml:space="preserve">OPALIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHOU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNRPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNF4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRRC59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSPE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1QBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDIA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD2L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBBP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MED4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRP9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRSF2</t>
+  </si>
+  <si>
     <t xml:space="preserve">from</t>
   </si>
   <si>
     <t xml:space="preserve">to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNF4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNRPB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRSF2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPA4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FBP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RICTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBBP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1QBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRP9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSPE1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD2L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPALIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDIA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRRC59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MED4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHOU</t>
   </si>
 </sst>
 </file>
@@ -12437,6 +12437,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>531</v>
+      </c>
+      <c r="B523"/>
+      <c r="C523"/>
+      <c r="D523"/>
+      <c r="E523"/>
+      <c r="F523"/>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>532</v>
+      </c>
+      <c r="B524"/>
+      <c r="C524"/>
+      <c r="D524"/>
+      <c r="E524"/>
+      <c r="F524"/>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>533</v>
+      </c>
+      <c r="B525"/>
+      <c r="C525"/>
+      <c r="D525"/>
+      <c r="E525"/>
+      <c r="F525"/>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>534</v>
+      </c>
+      <c r="B526"/>
+      <c r="C526"/>
+      <c r="D526"/>
+      <c r="E526"/>
+      <c r="F526"/>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>535</v>
+      </c>
+      <c r="B527"/>
+      <c r="C527"/>
+      <c r="D527"/>
+      <c r="E527"/>
+      <c r="F527"/>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>536</v>
+      </c>
+      <c r="B528"/>
+      <c r="C528"/>
+      <c r="D528"/>
+      <c r="E528"/>
+      <c r="F528"/>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>537</v>
+      </c>
+      <c r="B529"/>
+      <c r="C529"/>
+      <c r="D529"/>
+      <c r="E529"/>
+      <c r="F529"/>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>538</v>
+      </c>
+      <c r="B530"/>
+      <c r="C530"/>
+      <c r="D530"/>
+      <c r="E530"/>
+      <c r="F530"/>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>539</v>
+      </c>
+      <c r="B531"/>
+      <c r="C531"/>
+      <c r="D531"/>
+      <c r="E531"/>
+      <c r="F531"/>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>540</v>
+      </c>
+      <c r="B532"/>
+      <c r="C532"/>
+      <c r="D532"/>
+      <c r="E532"/>
+      <c r="F532"/>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>541</v>
+      </c>
+      <c r="B533"/>
+      <c r="C533"/>
+      <c r="D533"/>
+      <c r="E533"/>
+      <c r="F533"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>542</v>
+      </c>
+      <c r="B534"/>
+      <c r="C534"/>
+      <c r="D534"/>
+      <c r="E534"/>
+      <c r="F534"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>543</v>
+      </c>
+      <c r="B535"/>
+      <c r="C535"/>
+      <c r="D535"/>
+      <c r="E535"/>
+      <c r="F535"/>
+    </row>
+    <row r="536">
+      <c r="A536" t="s">
+        <v>544</v>
+      </c>
+      <c r="B536"/>
+      <c r="C536"/>
+      <c r="D536"/>
+      <c r="E536"/>
+      <c r="F536"/>
+    </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>545</v>
+      </c>
+      <c r="B537"/>
+      <c r="C537"/>
+      <c r="D537"/>
+      <c r="E537"/>
+      <c r="F537"/>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>546</v>
+      </c>
+      <c r="B538"/>
+      <c r="C538"/>
+      <c r="D538"/>
+      <c r="E538"/>
+      <c r="F538"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="s">
+        <v>547</v>
+      </c>
+      <c r="B539"/>
+      <c r="C539"/>
+      <c r="D539"/>
+      <c r="E539"/>
+      <c r="F539"/>
+    </row>
+    <row r="540">
+      <c r="A540" t="s">
+        <v>548</v>
+      </c>
+      <c r="B540"/>
+      <c r="C540"/>
+      <c r="D540"/>
+      <c r="E540"/>
+      <c r="F540"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -12453,10 +12633,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="B1" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2">
@@ -12552,7 +12732,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14">
@@ -12584,7 +12764,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18">
@@ -12592,7 +12772,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19">
@@ -12605,7 +12785,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -12648,7 +12828,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26">
@@ -12669,7 +12849,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -12709,7 +12889,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -12781,7 +12961,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -12821,7 +13001,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -12829,7 +13009,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -12920,7 +13100,7 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
     </row>
     <row r="60">
@@ -12981,7 +13161,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B67" t="s">
         <v>9</v>
@@ -12992,7 +13172,7 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="69">
@@ -13037,7 +13217,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
@@ -13064,7 +13244,7 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="78">
@@ -13088,7 +13268,7 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="81">
@@ -13104,7 +13284,7 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="83">
@@ -13128,7 +13308,7 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="86">
@@ -13144,7 +13324,7 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
     </row>
     <row r="88">
@@ -13181,7 +13361,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
@@ -13237,7 +13417,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
@@ -13293,7 +13473,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
@@ -13368,7 +13548,7 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="116">
@@ -13392,7 +13572,7 @@
         <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
     </row>
     <row r="119">
@@ -13416,7 +13596,7 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="122">
@@ -13437,7 +13617,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B124" t="s">
         <v>14</v>
@@ -13461,7 +13641,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B127" t="s">
         <v>14</v>
@@ -13552,7 +13732,7 @@
         <v>15</v>
       </c>
       <c r="B138" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
     </row>
     <row r="139">
@@ -13624,7 +13804,7 @@
         <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="148">
@@ -13645,7 +13825,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B150" t="s">
         <v>15</v>
@@ -13661,7 +13841,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="B152" t="s">
         <v>15</v>
@@ -13680,7 +13860,7 @@
         <v>15</v>
       </c>
       <c r="B154" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="155">
@@ -13717,7 +13897,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B159" t="s">
         <v>16</v>
@@ -13765,7 +13945,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B165" t="s">
         <v>16</v>
@@ -13789,7 +13969,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B168" t="s">
         <v>16</v>
@@ -13821,7 +14001,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B172" t="s">
         <v>18</v>
@@ -13837,7 +14017,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B174" t="s">
         <v>18</v>
@@ -13893,7 +14073,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B181" t="s">
         <v>18</v>
@@ -13917,7 +14097,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B184" t="s">
         <v>18</v>
@@ -13981,7 +14161,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B192" t="s">
         <v>19</v>
@@ -13989,7 +14169,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B193" t="s">
         <v>19</v>
@@ -14072,7 +14252,7 @@
         <v>19</v>
       </c>
       <c r="B203" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="204">
@@ -14088,7 +14268,7 @@
         <v>19</v>
       </c>
       <c r="B205" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="206">
@@ -14189,7 +14369,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B218" t="s">
         <v>20</v>
@@ -14205,7 +14385,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B220" t="s">
         <v>20</v>
@@ -14216,7 +14396,7 @@
         <v>20</v>
       </c>
       <c r="B221" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="222">
@@ -14261,7 +14441,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B227" t="s">
         <v>21</v>
@@ -14320,7 +14500,7 @@
         <v>21</v>
       </c>
       <c r="B234" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="235">
@@ -14392,7 +14572,7 @@
         <v>21</v>
       </c>
       <c r="B243" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="244">
@@ -14448,7 +14628,7 @@
         <v>22</v>
       </c>
       <c r="B250" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="251">
@@ -14469,7 +14649,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B253" t="s">
         <v>22</v>
@@ -14477,7 +14657,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B254" t="s">
         <v>22</v>
@@ -14493,7 +14673,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B256" t="s">
         <v>22</v>
@@ -14501,7 +14681,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B257" t="s">
         <v>22</v>
@@ -14520,7 +14700,7 @@
         <v>22</v>
       </c>
       <c r="B259" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="260">
@@ -14573,7 +14753,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B266" t="s">
         <v>23</v>
@@ -14589,7 +14769,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B268" t="s">
         <v>23</v>
@@ -14661,7 +14841,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B277" t="s">
         <v>23</v>
@@ -14733,7 +14913,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B286" t="s">
         <v>24</v>
@@ -14773,7 +14953,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B291" t="s">
         <v>24</v>
@@ -14837,7 +15017,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B299" t="s">
         <v>25</v>
@@ -14885,7 +15065,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="B305" t="s">
         <v>25</v>
@@ -14901,7 +15081,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B307" t="s">
         <v>25</v>
@@ -14976,7 +15156,7 @@
         <v>26</v>
       </c>
       <c r="B316" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="317">
@@ -15008,7 +15188,7 @@
         <v>26</v>
       </c>
       <c r="B320" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
     </row>
     <row r="321">
@@ -15032,7 +15212,7 @@
         <v>26</v>
       </c>
       <c r="B323" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="324">
@@ -15064,7 +15244,7 @@
         <v>27</v>
       </c>
       <c r="B327" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="328">
@@ -15112,7 +15292,7 @@
         <v>27</v>
       </c>
       <c r="B333" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="334">
@@ -15160,7 +15340,7 @@
         <v>28</v>
       </c>
       <c r="B339" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="340">
@@ -15197,7 +15377,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B344" t="s">
         <v>28</v>
@@ -15216,7 +15396,7 @@
         <v>28</v>
       </c>
       <c r="B346" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="347">
@@ -15224,7 +15404,7 @@
         <v>29</v>
       </c>
       <c r="B347" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="348">
@@ -15256,7 +15436,7 @@
         <v>29</v>
       </c>
       <c r="B351" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="352">
@@ -15288,7 +15468,7 @@
         <v>30</v>
       </c>
       <c r="B355" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="356">
@@ -15309,7 +15489,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B358" t="s">
         <v>30</v>
@@ -15360,7 +15540,7 @@
         <v>30</v>
       </c>
       <c r="B364" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="365">
@@ -15432,7 +15612,7 @@
         <v>31</v>
       </c>
       <c r="B373" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="374">
@@ -15445,7 +15625,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B375" t="s">
         <v>31</v>
@@ -15589,7 +15769,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B393" t="s">
         <v>32</v>
@@ -15621,7 +15801,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="B397" t="s">
         <v>32</v>
@@ -15645,7 +15825,7 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="B400" t="s">
         <v>33</v>
@@ -15653,7 +15833,7 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B401" t="s">
         <v>33</v>
@@ -15669,7 +15849,7 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="B403" t="s">
         <v>33</v>
@@ -15693,7 +15873,7 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B406" t="s">
         <v>33</v>
@@ -15701,7 +15881,7 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="B407" t="s">
         <v>33</v>
@@ -15781,7 +15961,7 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B417" t="s">
         <v>34</v>
@@ -15837,7 +16017,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B424" t="s">
         <v>35</v>
@@ -15877,7 +16057,7 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B429" t="s">
         <v>35</v>
@@ -15885,7 +16065,7 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B430" t="s">
         <v>35</v>
@@ -15917,7 +16097,7 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B434" t="s">
         <v>35</v>
@@ -15936,7 +16116,7 @@
         <v>35</v>
       </c>
       <c r="B436" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="437">
@@ -15952,7 +16132,7 @@
         <v>35</v>
       </c>
       <c r="B438" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
     </row>
     <row r="439">
@@ -16021,7 +16201,7 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B447" t="s">
         <v>36</v>
@@ -16032,7 +16212,7 @@
         <v>36</v>
       </c>
       <c r="B448" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="449">
@@ -16048,7 +16228,7 @@
         <v>36</v>
       </c>
       <c r="B450" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="451">
@@ -16080,7 +16260,7 @@
         <v>37</v>
       </c>
       <c r="B454" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="455">
@@ -16160,7 +16340,7 @@
         <v>37</v>
       </c>
       <c r="B464" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="465">
@@ -16168,7 +16348,7 @@
         <v>37</v>
       </c>
       <c r="B465" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="466">
@@ -16208,7 +16388,7 @@
         <v>38</v>
       </c>
       <c r="B470" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="471">
@@ -16216,7 +16396,7 @@
         <v>38</v>
       </c>
       <c r="B471" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="472">
@@ -16248,7 +16428,7 @@
         <v>38</v>
       </c>
       <c r="B475" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="476">
@@ -16256,7 +16436,7 @@
         <v>38</v>
       </c>
       <c r="B476" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
     </row>
     <row r="477">
@@ -16312,7 +16492,7 @@
         <v>39</v>
       </c>
       <c r="B483" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="484">
@@ -16320,7 +16500,7 @@
         <v>39</v>
       </c>
       <c r="B484" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="485">
@@ -16512,7 +16692,7 @@
         <v>42</v>
       </c>
       <c r="B508" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="509">
@@ -16528,7 +16708,7 @@
         <v>42</v>
       </c>
       <c r="B510" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="511">
@@ -16544,12 +16724,12 @@
         <v>42</v>
       </c>
       <c r="B512" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B513" t="s">
         <v>42</v>
@@ -16581,7 +16761,7 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B517" t="s">
         <v>43</v>
@@ -16704,7 +16884,7 @@
         <v>45</v>
       </c>
       <c r="B532" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="533">
@@ -16773,7 +16953,7 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B541" t="s">
         <v>46</v>
@@ -16781,7 +16961,7 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B542" t="s">
         <v>46</v>
@@ -16800,7 +16980,7 @@
         <v>46</v>
       </c>
       <c r="B544" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="545">
@@ -16813,7 +16993,7 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B546" t="s">
         <v>46</v>
@@ -16829,7 +17009,7 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B548" t="s">
         <v>47</v>
@@ -16840,7 +17020,7 @@
         <v>47</v>
       </c>
       <c r="B549" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="550">
@@ -16864,7 +17044,7 @@
         <v>47</v>
       </c>
       <c r="B552" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="553">
@@ -16901,7 +17081,7 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B557" t="s">
         <v>48</v>
@@ -16909,7 +17089,7 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B558" t="s">
         <v>48</v>
@@ -16965,7 +17145,7 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B565" t="s">
         <v>50</v>
@@ -16981,7 +17161,7 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B567" t="s">
         <v>50</v>
@@ -17013,7 +17193,7 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B571" t="s">
         <v>51</v>
@@ -17112,7 +17292,7 @@
         <v>52</v>
       </c>
       <c r="B583" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="584">
@@ -17120,7 +17300,7 @@
         <v>52</v>
       </c>
       <c r="B584" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="585">
@@ -17189,7 +17369,7 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B593" t="s">
         <v>53</v>
@@ -17200,12 +17380,12 @@
         <v>53</v>
       </c>
       <c r="B594" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B595" t="s">
         <v>53</v>
@@ -17224,7 +17404,7 @@
         <v>54</v>
       </c>
       <c r="B597" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="598">
@@ -17280,7 +17460,7 @@
         <v>55</v>
       </c>
       <c r="B604" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="605">
@@ -17296,7 +17476,7 @@
         <v>55</v>
       </c>
       <c r="B606" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="607">
@@ -17312,7 +17492,7 @@
         <v>55</v>
       </c>
       <c r="B608" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="609">
@@ -17376,7 +17556,7 @@
         <v>57</v>
       </c>
       <c r="B616" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="617">
@@ -17453,7 +17633,7 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B626" t="s">
         <v>58</v>
@@ -17493,7 +17673,7 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B631" t="s">
         <v>58</v>
@@ -17541,7 +17721,7 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B637" t="s">
         <v>59</v>
@@ -17557,7 +17737,7 @@
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B639" t="s">
         <v>59</v>
@@ -17565,7 +17745,7 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B640" t="s">
         <v>59</v>
@@ -17576,7 +17756,7 @@
         <v>59</v>
       </c>
       <c r="B641" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
     </row>
     <row r="642">
@@ -17584,7 +17764,7 @@
         <v>59</v>
       </c>
       <c r="B642" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="643">
@@ -17600,7 +17780,7 @@
         <v>59</v>
       </c>
       <c r="B644" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="645">
@@ -17685,7 +17865,7 @@
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B655" t="s">
         <v>61</v>
@@ -17696,7 +17876,7 @@
         <v>61</v>
       </c>
       <c r="B656" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="657">
@@ -17749,7 +17929,7 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B663" t="s">
         <v>61</v>
@@ -17800,7 +17980,7 @@
         <v>62</v>
       </c>
       <c r="B669" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="670">
@@ -17885,7 +18065,7 @@
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B680" t="s">
         <v>64</v>
@@ -17965,7 +18145,7 @@
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B690" t="s">
         <v>65</v>
@@ -17992,7 +18172,7 @@
         <v>65</v>
       </c>
       <c r="B693" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="694">
@@ -18104,7 +18284,7 @@
         <v>68</v>
       </c>
       <c r="B707" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
     </row>
     <row r="708">
@@ -18133,7 +18313,7 @@
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B711" t="s">
         <v>68</v>
@@ -18192,7 +18372,7 @@
         <v>70</v>
       </c>
       <c r="B718" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="719">
@@ -18205,7 +18385,7 @@
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B720" t="s">
         <v>70</v>
@@ -18213,7 +18393,7 @@
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B721" t="s">
         <v>70</v>
@@ -18224,7 +18404,7 @@
         <v>70</v>
       </c>
       <c r="B722" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="723">
@@ -18232,7 +18412,7 @@
         <v>70</v>
       </c>
       <c r="B723" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="724">
@@ -18261,7 +18441,7 @@
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B727" t="s">
         <v>71</v>
@@ -18304,7 +18484,7 @@
         <v>72</v>
       </c>
       <c r="B732" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="733">
@@ -18320,7 +18500,7 @@
         <v>72</v>
       </c>
       <c r="B734" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="735">
@@ -18328,7 +18508,7 @@
         <v>73</v>
       </c>
       <c r="B735" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="736">
@@ -18352,7 +18532,7 @@
         <v>73</v>
       </c>
       <c r="B738" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="739">
@@ -18368,7 +18548,7 @@
         <v>74</v>
       </c>
       <c r="B740" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="741">
@@ -18381,7 +18561,7 @@
     </row>
     <row r="742">
       <c r="A742" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B742" t="s">
         <v>75</v>
@@ -18392,7 +18572,7 @@
         <v>75</v>
       </c>
       <c r="B743" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="744">
@@ -18408,7 +18588,7 @@
         <v>76</v>
       </c>
       <c r="B745" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="746">
@@ -18488,7 +18668,7 @@
         <v>78</v>
       </c>
       <c r="B755" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="756">
@@ -18512,7 +18692,7 @@
         <v>78</v>
       </c>
       <c r="B758" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="759">
@@ -18541,7 +18721,7 @@
     </row>
     <row r="762">
       <c r="A762" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B762" t="s">
         <v>78</v>
@@ -18568,7 +18748,7 @@
         <v>78</v>
       </c>
       <c r="B765" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="766">
@@ -18632,7 +18812,7 @@
         <v>79</v>
       </c>
       <c r="B773" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="774">
@@ -18640,7 +18820,7 @@
         <v>80</v>
       </c>
       <c r="B774" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="775">
@@ -18704,7 +18884,7 @@
         <v>81</v>
       </c>
       <c r="B782" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="783">
@@ -18728,7 +18908,7 @@
         <v>81</v>
       </c>
       <c r="B785" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="786">
@@ -18784,7 +18964,7 @@
         <v>83</v>
       </c>
       <c r="B792" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="793">
@@ -18800,7 +18980,7 @@
         <v>83</v>
       </c>
       <c r="B794" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
     </row>
     <row r="795">
@@ -18808,7 +18988,7 @@
         <v>83</v>
       </c>
       <c r="B795" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="796">
@@ -18904,7 +19084,7 @@
         <v>86</v>
       </c>
       <c r="B807" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="808">
@@ -18941,7 +19121,7 @@
     </row>
     <row r="812">
       <c r="A812" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B812" t="s">
         <v>87</v>
@@ -18949,7 +19129,7 @@
     </row>
     <row r="813">
       <c r="A813" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B813" t="s">
         <v>88</v>
@@ -18992,7 +19172,7 @@
         <v>88</v>
       </c>
       <c r="B818" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="819">
@@ -19005,7 +19185,7 @@
     </row>
     <row r="820">
       <c r="A820" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B820" t="s">
         <v>90</v>
@@ -19048,7 +19228,7 @@
         <v>90</v>
       </c>
       <c r="B825" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="826">
@@ -19056,7 +19236,7 @@
         <v>90</v>
       </c>
       <c r="B826" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="827">
@@ -19112,7 +19292,7 @@
         <v>92</v>
       </c>
       <c r="B833" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
     </row>
     <row r="834">
@@ -19133,7 +19313,7 @@
     </row>
     <row r="836">
       <c r="A836" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B836" t="s">
         <v>93</v>
@@ -19229,7 +19409,7 @@
     </row>
     <row r="848">
       <c r="A848" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B848" t="s">
         <v>96</v>
@@ -19245,7 +19425,7 @@
     </row>
     <row r="850">
       <c r="A850" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B850" t="s">
         <v>97</v>
@@ -19253,7 +19433,7 @@
     </row>
     <row r="851">
       <c r="A851" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B851" t="s">
         <v>97</v>
@@ -19261,7 +19441,7 @@
     </row>
     <row r="852">
       <c r="A852" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B852" t="s">
         <v>97</v>
@@ -19341,7 +19521,7 @@
     </row>
     <row r="862">
       <c r="A862" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="B862" t="s">
         <v>98</v>
@@ -19381,7 +19561,7 @@
     </row>
     <row r="867">
       <c r="A867" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B867" t="s">
         <v>100</v>
@@ -19464,7 +19644,7 @@
         <v>101</v>
       </c>
       <c r="B877" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="878">
@@ -19472,7 +19652,7 @@
         <v>101</v>
       </c>
       <c r="B878" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="879">
@@ -19480,7 +19660,7 @@
         <v>101</v>
       </c>
       <c r="B879" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="880">
@@ -19493,7 +19673,7 @@
     </row>
     <row r="881">
       <c r="A881" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B881" t="s">
         <v>102</v>
@@ -19509,7 +19689,7 @@
     </row>
     <row r="883">
       <c r="A883" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B883" t="s">
         <v>102</v>
@@ -19533,7 +19713,7 @@
     </row>
     <row r="886">
       <c r="A886" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B886" t="s">
         <v>102</v>
@@ -19565,7 +19745,7 @@
     </row>
     <row r="890">
       <c r="A890" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B890" t="s">
         <v>103</v>
@@ -19653,7 +19833,7 @@
     </row>
     <row r="901">
       <c r="A901" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B901" t="s">
         <v>105</v>
@@ -19672,7 +19852,7 @@
         <v>107</v>
       </c>
       <c r="B903" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="904">
@@ -19688,7 +19868,7 @@
         <v>107</v>
       </c>
       <c r="B905" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="906">
@@ -19725,7 +19905,7 @@
     </row>
     <row r="910">
       <c r="A910" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B910" t="s">
         <v>108</v>
@@ -19733,7 +19913,7 @@
     </row>
     <row r="911">
       <c r="A911" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B911" t="s">
         <v>108</v>
@@ -19765,7 +19945,7 @@
     </row>
     <row r="915">
       <c r="A915" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B915" t="s">
         <v>109</v>
@@ -19797,7 +19977,7 @@
     </row>
     <row r="919">
       <c r="A919" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B919" t="s">
         <v>110</v>
@@ -19805,7 +19985,7 @@
     </row>
     <row r="920">
       <c r="A920" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="B920" t="s">
         <v>110</v>
@@ -19832,7 +20012,7 @@
         <v>111</v>
       </c>
       <c r="B923" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="924">
@@ -19845,7 +20025,7 @@
     </row>
     <row r="925">
       <c r="A925" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B925" t="s">
         <v>112</v>
@@ -19853,7 +20033,7 @@
     </row>
     <row r="926">
       <c r="A926" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B926" t="s">
         <v>112</v>
@@ -19869,7 +20049,7 @@
     </row>
     <row r="928">
       <c r="A928" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B928" t="s">
         <v>112</v>
@@ -19909,7 +20089,7 @@
     </row>
     <row r="933">
       <c r="A933" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B933" t="s">
         <v>113</v>
@@ -19925,7 +20105,7 @@
     </row>
     <row r="935">
       <c r="A935" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B935" t="s">
         <v>114</v>
@@ -19944,7 +20124,7 @@
         <v>115</v>
       </c>
       <c r="B937" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="938">
@@ -19989,7 +20169,7 @@
     </row>
     <row r="943">
       <c r="A943" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B943" t="s">
         <v>116</v>
@@ -19997,7 +20177,7 @@
     </row>
     <row r="944">
       <c r="A944" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B944" t="s">
         <v>116</v>
@@ -20024,7 +20204,7 @@
         <v>118</v>
       </c>
       <c r="B947" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="948">
@@ -20032,7 +20212,7 @@
         <v>118</v>
       </c>
       <c r="B948" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="949">
@@ -20101,7 +20281,7 @@
     </row>
     <row r="957">
       <c r="A957" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B957" t="s">
         <v>120</v>
@@ -20128,7 +20308,7 @@
         <v>121</v>
       </c>
       <c r="B960" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
     </row>
     <row r="961">
@@ -20141,7 +20321,7 @@
     </row>
     <row r="962">
       <c r="A962" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B962" t="s">
         <v>122</v>
@@ -20213,7 +20393,7 @@
     </row>
     <row r="971">
       <c r="A971" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B971" t="s">
         <v>124</v>
@@ -20312,7 +20492,7 @@
         <v>127</v>
       </c>
       <c r="B983" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="984">
@@ -20389,7 +20569,7 @@
     </row>
     <row r="993">
       <c r="A993" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B993" t="s">
         <v>132</v>
@@ -20493,7 +20673,7 @@
     </row>
     <row r="1006">
       <c r="A1006" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B1006" t="s">
         <v>137</v>
@@ -20501,7 +20681,7 @@
     </row>
     <row r="1007">
       <c r="A1007" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B1007" t="s">
         <v>137</v>
@@ -20536,7 +20716,7 @@
         <v>138</v>
       </c>
       <c r="B1011" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="1012">
@@ -20544,7 +20724,7 @@
         <v>138</v>
       </c>
       <c r="B1012" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="1013">
@@ -20600,7 +20780,7 @@
         <v>140</v>
       </c>
       <c r="B1019" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="1020">
@@ -20608,12 +20788,12 @@
         <v>141</v>
       </c>
       <c r="B1020" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B1021" t="s">
         <v>141</v>
@@ -20632,7 +20812,7 @@
         <v>142</v>
       </c>
       <c r="B1023" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="1024">
@@ -20704,7 +20884,7 @@
         <v>143</v>
       </c>
       <c r="B1032" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="1033">
@@ -20712,7 +20892,7 @@
         <v>143</v>
       </c>
       <c r="B1033" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1034">
@@ -20864,7 +21044,7 @@
         <v>151</v>
       </c>
       <c r="B1052" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="1053">
@@ -20896,7 +21076,7 @@
         <v>152</v>
       </c>
       <c r="B1056" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="1057">
@@ -20912,7 +21092,7 @@
         <v>153</v>
       </c>
       <c r="B1058" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
     </row>
     <row r="1059">
@@ -20944,7 +21124,7 @@
         <v>155</v>
       </c>
       <c r="B1062" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="1063">
@@ -20952,12 +21132,12 @@
         <v>155</v>
       </c>
       <c r="B1063" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B1064" t="s">
         <v>155</v>
@@ -20968,7 +21148,7 @@
         <v>155</v>
       </c>
       <c r="B1065" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1066">
@@ -21032,7 +21212,7 @@
         <v>159</v>
       </c>
       <c r="B1073" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
     </row>
     <row r="1074">
@@ -21040,12 +21220,12 @@
         <v>159</v>
       </c>
       <c r="B1074" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B1075" t="s">
         <v>159</v>
@@ -21061,7 +21241,7 @@
     </row>
     <row r="1077">
       <c r="A1077" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B1077" t="s">
         <v>160</v>
@@ -21109,7 +21289,7 @@
     </row>
     <row r="1083">
       <c r="A1083" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B1083" t="s">
         <v>162</v>
@@ -21133,7 +21313,7 @@
     </row>
     <row r="1086">
       <c r="A1086" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B1086" t="s">
         <v>164</v>
@@ -21200,7 +21380,7 @@
         <v>167</v>
       </c>
       <c r="B1094" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="1095">
@@ -21213,7 +21393,7 @@
     </row>
     <row r="1096">
       <c r="A1096" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B1096" t="s">
         <v>168</v>
@@ -21256,7 +21436,7 @@
         <v>169</v>
       </c>
       <c r="B1101" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
     </row>
     <row r="1102">
@@ -21333,7 +21513,7 @@
     </row>
     <row r="1111">
       <c r="A1111" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B1111" t="s">
         <v>173</v>
@@ -21440,7 +21620,7 @@
         <v>181</v>
       </c>
       <c r="B1124" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1125">
@@ -21477,7 +21657,7 @@
     </row>
     <row r="1129">
       <c r="A1129" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B1129" t="s">
         <v>186</v>
@@ -21485,7 +21665,7 @@
     </row>
     <row r="1130">
       <c r="A1130" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B1130" t="s">
         <v>186</v>
@@ -21493,7 +21673,7 @@
     </row>
     <row r="1131">
       <c r="A1131" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B1131" t="s">
         <v>186</v>
@@ -21536,7 +21716,7 @@
         <v>187</v>
       </c>
       <c r="B1136" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="1137">
@@ -21621,7 +21801,7 @@
     </row>
     <row r="1147">
       <c r="A1147" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B1147" t="s">
         <v>194</v>
@@ -21629,7 +21809,7 @@
     </row>
     <row r="1148">
       <c r="A1148" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B1148" t="s">
         <v>195</v>
@@ -21664,7 +21844,7 @@
         <v>196</v>
       </c>
       <c r="B1152" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="1153">
@@ -21672,7 +21852,7 @@
         <v>196</v>
       </c>
       <c r="B1153" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1154">
@@ -21760,7 +21940,7 @@
         <v>202</v>
       </c>
       <c r="B1164" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="1165">
@@ -21768,7 +21948,7 @@
         <v>202</v>
       </c>
       <c r="B1165" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="1166">
@@ -21776,7 +21956,7 @@
         <v>202</v>
       </c>
       <c r="B1166" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="1167">
@@ -21920,12 +22100,12 @@
         <v>215</v>
       </c>
       <c r="B1184" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B1185" t="s">
         <v>215</v>
@@ -21965,7 +22145,7 @@
     </row>
     <row r="1190">
       <c r="A1190" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B1190" t="s">
         <v>217</v>
@@ -21973,7 +22153,7 @@
     </row>
     <row r="1191">
       <c r="A1191" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="B1191" t="s">
         <v>217</v>
@@ -21989,7 +22169,7 @@
     </row>
     <row r="1193">
       <c r="A1193" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B1193" t="s">
         <v>217</v>
@@ -21997,7 +22177,7 @@
     </row>
     <row r="1194">
       <c r="A1194" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B1194" t="s">
         <v>218</v>
@@ -22005,7 +22185,7 @@
     </row>
     <row r="1195">
       <c r="A1195" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B1195" t="s">
         <v>218</v>
@@ -22069,7 +22249,7 @@
     </row>
     <row r="1203">
       <c r="A1203" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B1203" t="s">
         <v>224</v>
@@ -22080,7 +22260,7 @@
         <v>224</v>
       </c>
       <c r="B1204" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="1205">
@@ -22088,7 +22268,7 @@
         <v>224</v>
       </c>
       <c r="B1205" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="1206">
@@ -22128,7 +22308,7 @@
         <v>226</v>
       </c>
       <c r="B1210" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="1211">
@@ -22136,7 +22316,7 @@
         <v>226</v>
       </c>
       <c r="B1211" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1212">
@@ -22152,7 +22332,7 @@
         <v>228</v>
       </c>
       <c r="B1213" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="1214">
@@ -22165,7 +22345,7 @@
     </row>
     <row r="1215">
       <c r="A1215" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B1215" t="s">
         <v>230</v>
@@ -22240,7 +22420,7 @@
         <v>242</v>
       </c>
       <c r="B1224" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
     </row>
     <row r="1225">
@@ -22256,7 +22436,7 @@
         <v>242</v>
       </c>
       <c r="B1226" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="1227">
@@ -22272,7 +22452,7 @@
         <v>243</v>
       </c>
       <c r="B1228" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="1229">
@@ -22296,7 +22476,7 @@
         <v>244</v>
       </c>
       <c r="B1231" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="1232">
@@ -22317,7 +22497,7 @@
     </row>
     <row r="1234">
       <c r="A1234" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="B1234" t="s">
         <v>248</v>
@@ -22349,7 +22529,7 @@
     </row>
     <row r="1238">
       <c r="A1238" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B1238" t="s">
         <v>257</v>
@@ -22357,7 +22537,7 @@
     </row>
     <row r="1239">
       <c r="A1239" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B1239" t="s">
         <v>257</v>
@@ -22376,7 +22556,7 @@
         <v>260</v>
       </c>
       <c r="B1241" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
     </row>
     <row r="1242">
@@ -22384,7 +22564,7 @@
         <v>260</v>
       </c>
       <c r="B1242" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1243">
@@ -22400,7 +22580,7 @@
         <v>265</v>
       </c>
       <c r="B1244" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1245">
@@ -22485,7 +22665,7 @@
     </row>
     <row r="1255">
       <c r="A1255" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B1255" t="s">
         <v>277</v>
@@ -22536,7 +22716,7 @@
         <v>294</v>
       </c>
       <c r="B1261" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
     </row>
     <row r="1262">
@@ -22544,7 +22724,7 @@
         <v>294</v>
       </c>
       <c r="B1262" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="1263">
@@ -22581,7 +22761,7 @@
     </row>
     <row r="1267">
       <c r="A1267" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B1267" t="s">
         <v>307</v>
@@ -22600,7 +22780,7 @@
         <v>310</v>
       </c>
       <c r="B1269" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="1270">
@@ -22616,7 +22796,7 @@
         <v>310</v>
       </c>
       <c r="B1271" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="1272">
@@ -22656,7 +22836,7 @@
         <v>317</v>
       </c>
       <c r="B1276" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="1277">
@@ -22669,7 +22849,7 @@
     </row>
     <row r="1278">
       <c r="A1278" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B1278" t="s">
         <v>324</v>
@@ -22688,7 +22868,7 @@
         <v>326</v>
       </c>
       <c r="B1280" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="1281">
@@ -22696,7 +22876,7 @@
         <v>326</v>
       </c>
       <c r="B1281" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="1282">
@@ -22717,7 +22897,7 @@
     </row>
     <row r="1284">
       <c r="A1284" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B1284" t="s">
         <v>341</v>
@@ -22768,7 +22948,7 @@
         <v>351</v>
       </c>
       <c r="B1290" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="1291">
@@ -22813,7 +22993,7 @@
     </row>
     <row r="1296">
       <c r="A1296" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B1296" t="s">
         <v>367</v>
@@ -22861,7 +23041,7 @@
     </row>
     <row r="1302">
       <c r="A1302" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B1302" t="s">
         <v>384</v>
@@ -22909,7 +23089,7 @@
     </row>
     <row r="1308">
       <c r="A1308" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B1308" t="s">
         <v>419</v>
@@ -22917,7 +23097,7 @@
     </row>
     <row r="1309">
       <c r="A1309" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B1309" t="s">
         <v>420</v>
@@ -22941,7 +23121,7 @@
     </row>
     <row r="1312">
       <c r="A1312" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="B1312" t="s">
         <v>426</v>
@@ -22968,7 +23148,7 @@
         <v>435</v>
       </c>
       <c r="B1315" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="1316">
@@ -22989,7 +23169,7 @@
     </row>
     <row r="1318">
       <c r="A1318" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B1318" t="s">
         <v>499</v>
